--- a/Project_V/Assets/ExcelFiles/writeletter.xlsx
+++ b/Project_V/Assets/ExcelFiles/writeletter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD0A94-4091-4199-829C-35F2F755B921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA88C1-39EE-49E7-A170-C5ED1758E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="8595" yWindow="255" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="poststamp" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/writeletter.xlsx
+++ b/Project_V/Assets/ExcelFiles/writeletter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA88C1-39EE-49E7-A170-C5ED1758E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2E4E1-F74C-482F-9E3B-FC519C9D4641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="255" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="poststamp" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
-  <si>
-    <t>Day</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Turn</t>
   </si>
@@ -427,6 +424,10 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1492,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1505,33 +1506,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1540,24 +1541,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1566,24 +1567,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1592,24 +1593,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1618,24 +1619,24 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>1</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1644,24 +1645,24 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1670,24 +1671,24 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>1</v>
+      <c r="A8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1696,24 +1697,24 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
+      <c r="A9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1722,24 +1723,24 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>1</v>
+      <c r="A10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -1748,16 +1749,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>1</v>
@@ -1774,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>1</v>
